--- a/ASCIWebApp/wwwroot/Հավելված 1.xlsx
+++ b/ASCIWebApp/wwwroot/Հավելված 1.xlsx
@@ -102,7 +102,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -110,6 +109,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +395,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H5:H6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,144 +407,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>3425020293</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>3425020293</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2470058141880000</v>
       </c>
-      <c r="D2" s="3">
-        <v>3425020293</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4">
+        <v>2470058141880000</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>3425020293</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3425020293</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="2">
+        <v>2356636565</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5440014</v>
+      </c>
+      <c r="C3" s="2">
         <v>2470058141880000</v>
       </c>
-      <c r="D3" s="3">
-        <v>3425020293</v>
+      <c r="D3" s="2">
+        <v>2470058141880000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASCIWebApp/wwwroot/Հավելված 1.xlsx
+++ b/ASCIWebApp/wwwroot/Հավելված 1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>SocCardNum</t>
   </si>
@@ -31,13 +31,43 @@
   </si>
   <si>
     <t>ANTPType</t>
+  </si>
+  <si>
+    <t>ervgeg</t>
+  </si>
+  <si>
+    <t>efgvg</t>
+  </si>
+  <si>
+    <t>gerg</t>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>fce</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>eger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,9 +120,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -100,18 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,159 +415,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>3425020293</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3425020293</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2470058141880000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2470058141880000</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2356636565</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5440014</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2470058141880000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2470058141880000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>57525</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASCIWebApp/wwwroot/Հավելված 1.xlsx
+++ b/ASCIWebApp/wwwroot/Հավելված 1.xlsx
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,28 +113,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -428,7 +418,7 @@
     <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -456,7 +446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,7 +460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -484,7 +474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -498,94 +488,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
